--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_15_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_15_27.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1718831.329852232</v>
+        <v>1823065.038245679</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12561851.30939063</v>
+        <v>12502432.03437992</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10182023.84648298</v>
+        <v>10190936.73773459</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>303.8290895531829</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>169.0477797924961</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,10 +721,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -750,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734089393</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T3" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U3" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -829,10 +831,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>9.122075265478191</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,22 +864,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>11.168189153341</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -896,13 +898,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>233.6876255317273</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,16 +949,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>37.93649886016453</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -990,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247631</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1054,7 +1056,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>91.74341314428739</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1066,13 +1068,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>36.63188116405799</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,13 +1135,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>301.2402584038925</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,10 +1150,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>2.756342121857402</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1227,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1288,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1336,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>71.67037196991681</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1357,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>126.0955237083907</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1385,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1436,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="12">
@@ -1537,7 +1539,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>31.26260713376613</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1546,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1582,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1622,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1774,7 +1776,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>31.26260713376613</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>72.26558381699924</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>142.4385057595946</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>19.91555826189108</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2065,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2129,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2254,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>107.4021082756248</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>99.98993057842257</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2318,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2482,10 +2484,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>86.24032515900413</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2494,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,22 +2526,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>206.7582264966179</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2552,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634804</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695513</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701347</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174128</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560534</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819371</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182122</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.433962646569</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229311</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462237</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856536</v>
+        <v>7.408064079030929</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012152</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>105.6507867899596</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.1376433238278</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.5229983365908</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520946</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2846,7 +2848,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2947,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2962,13 +2964,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3001,7 +3003,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3016,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>5.640152769374993</v>
+        <v>206.5358970628749</v>
       </c>
     </row>
     <row r="32">
@@ -3083,10 +3085,10 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881285</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701339</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3196,7 +3198,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>71.5632757833967</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3241,19 +3243,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>171.1529885179057</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3424,13 +3426,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>63.1628130171261</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -3472,7 +3474,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>156.2179706626152</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3487,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3737,19 +3739,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206831</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.930370072262</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417103</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3788,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695547</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701351</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.2409687174132</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784692</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560538</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819375</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.246821098628</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182125</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.524138292269</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462241</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.2658363185657</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>177.6965697803314</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892443</v>
+        <v>160.6789846282037</v>
       </c>
       <c r="V43" t="n">
-        <v>252.1376433238282</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.5229983365912</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.584653352095</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,13 +4140,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4153,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>241.1435815093809</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2283.102991989294</v>
+        <v>1842.294639468329</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1473.332122527917</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1115.066423921167</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>944.3110907974333</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>533.3251860078258</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520488</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="V2" t="n">
-        <v>3009.337405520488</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="W2" t="n">
-        <v>2656.568750250373</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="X2" t="n">
-        <v>2283.102991989294</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="Y2" t="n">
-        <v>2283.102991989294</v>
+        <v>2228.894479532451</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031478</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>884.9085321458215</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1248.170551105042</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>680.3679798527295</v>
+        <v>1768.196540445805</v>
       </c>
       <c r="C4" t="n">
-        <v>511.4317969248226</v>
+        <v>1599.260357517898</v>
       </c>
       <c r="D4" t="n">
-        <v>361.3151575124869</v>
+        <v>1449.143718105563</v>
       </c>
       <c r="E4" t="n">
-        <v>213.4020639300938</v>
+        <v>1301.23062452317</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218342</v>
+        <v>1154.34067702526</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218342</v>
+        <v>986.3542123335382</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>977.1399948936612</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>977.1399948936612</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>1002.60916787878</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>1174.299679627706</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>1449.530858294981</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760404</v>
+        <v>1750.112669035317</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>2048.981932571481</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>2309.019775324693</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>2508.006390496682</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088492</v>
+        <v>2459.755921915737</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088492</v>
+        <v>2459.755921915737</v>
       </c>
       <c r="T4" t="n">
-        <v>1916.013548943703</v>
+        <v>2459.755921915737</v>
       </c>
       <c r="U4" t="n">
-        <v>1626.910682069347</v>
+        <v>2170.637584419575</v>
       </c>
       <c r="V4" t="n">
-        <v>1372.22619386346</v>
+        <v>2170.637584419575</v>
       </c>
       <c r="W4" t="n">
-        <v>1082.809023826499</v>
+        <v>2170.637584419575</v>
       </c>
       <c r="X4" t="n">
-        <v>1082.809023826499</v>
+        <v>2170.637584419575</v>
       </c>
       <c r="Y4" t="n">
-        <v>862.0164446829692</v>
+        <v>1949.845005276045</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1601.11348746897</v>
+        <v>1914.669427940025</v>
       </c>
       <c r="C5" t="n">
-        <v>1232.150970528558</v>
+        <v>1914.669427940025</v>
       </c>
       <c r="D5" t="n">
-        <v>1232.150970528558</v>
+        <v>1556.403729333274</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>1170.61547673503</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>759.6295719454226</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>344.5571217904191</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4583,34 +4585,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V5" t="n">
-        <v>2717.487232975976</v>
+        <v>2678.274518176916</v>
       </c>
       <c r="W5" t="n">
-        <v>2364.718577705862</v>
+        <v>2678.274518176916</v>
       </c>
       <c r="X5" t="n">
-        <v>1991.252819444782</v>
+        <v>2304.808759915837</v>
       </c>
       <c r="Y5" t="n">
-        <v>1601.11348746897</v>
+        <v>1914.669427940025</v>
       </c>
     </row>
     <row r="6">
@@ -4620,34 +4622,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L6" t="n">
         <v>765.151745215813</v>
@@ -4662,31 +4664,31 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y6" t="n">
         <v>1109.759191501176</v>
@@ -4699,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>680.3679798527295</v>
+        <v>1015.34761180106</v>
       </c>
       <c r="C7" t="n">
-        <v>511.4317969248226</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D7" t="n">
-        <v>361.3151575124869</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E7" t="n">
-        <v>213.4020639300938</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218342</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,31 +4746,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1705.527932658019</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U7" t="n">
-        <v>1416.425065783662</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="V7" t="n">
-        <v>1379.423165617947</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="W7" t="n">
-        <v>1090.005995580987</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="X7" t="n">
-        <v>862.0164446829692</v>
+        <v>1417.788655774829</v>
       </c>
       <c r="Y7" t="n">
-        <v>862.0164446829692</v>
+        <v>1196.996076631299</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1624.638712032431</v>
+        <v>1561.900772669911</v>
       </c>
       <c r="C8" t="n">
-        <v>1624.638712032431</v>
+        <v>1192.938255729499</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>1192.938255729499</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>1192.938255729499</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>781.9523509398919</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>366.8799007848883</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>69.29630039365554</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3072.075344883008</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V8" t="n">
-        <v>2741.012457539437</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="W8" t="n">
-        <v>2388.243802269323</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="X8" t="n">
-        <v>2014.778044008243</v>
+        <v>1952.040104645723</v>
       </c>
       <c r="Y8" t="n">
-        <v>1624.638712032431</v>
+        <v>1561.900772669911</v>
       </c>
     </row>
     <row r="9">
@@ -4878,16 +4880,16 @@
         <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>235.4482993600903</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>66.51211643218343</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>66.51211643218343</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218343</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4981,31 +4983,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="V10" t="n">
-        <v>880.2242361621296</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W10" t="n">
-        <v>590.8070661251691</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X10" t="n">
-        <v>362.8175152271517</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y10" t="n">
-        <v>235.4482993600903</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,61 +5029,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,10 +5114,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5130,10 +5132,10 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190824</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5173,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>983.3556038098242</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C13" t="n">
-        <v>814.4194208819173</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D13" t="n">
-        <v>664.3027814695815</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E13" t="n">
-        <v>516.3896878871884</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
         <v>484.8112968429802</v>
@@ -5191,58 +5193,58 @@
         <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U13" t="n">
-        <v>2157.887856924459</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V13" t="n">
-        <v>1903.203368718572</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W13" t="n">
-        <v>1613.786198681611</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X13" t="n">
-        <v>1385.796647783594</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y13" t="n">
-        <v>1165.004068640064</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,61 +5266,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>280.8495004245705</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>776.1751066403293</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>983.3556038098242</v>
+        <v>1089.57599612053</v>
       </c>
       <c r="C16" t="n">
-        <v>814.4194208819173</v>
+        <v>920.6398131926233</v>
       </c>
       <c r="D16" t="n">
-        <v>664.3027814695815</v>
+        <v>770.5231737802875</v>
       </c>
       <c r="E16" t="n">
-        <v>516.3896878871884</v>
+        <v>622.6100801978944</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>475.720132699984</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>308.5240334148639</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>166.812202257062</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U16" t="n">
-        <v>2157.887856924459</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="V16" t="n">
-        <v>1903.203368718572</v>
+        <v>2009.423761029278</v>
       </c>
       <c r="W16" t="n">
-        <v>1613.786198681611</v>
+        <v>1720.006590992317</v>
       </c>
       <c r="X16" t="n">
-        <v>1385.796647783594</v>
+        <v>1492.0170400943</v>
       </c>
       <c r="Y16" t="n">
-        <v>1165.004068640064</v>
+        <v>1271.22446095077</v>
       </c>
     </row>
     <row r="17">
@@ -5510,34 +5512,34 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
         <v>4606.285157492578</v>
@@ -5549,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O18" t="n">
-        <v>2516.421633107662</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>923.4916164683287</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C19" t="n">
-        <v>923.4916164683287</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232836</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5695,28 +5697,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X19" t="n">
-        <v>1144.284195611859</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y19" t="n">
-        <v>923.4916164683287</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="20">
@@ -5726,46 +5728,46 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5783,19 +5785,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C21" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D21" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G21" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>2381.235169913446</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>2715.159942084666</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>3210.485548300425</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>3807.864035926977</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>4033.948342528643</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>4033.948342528643</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P21" t="n">
-        <v>4457.571492023711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>4690.833152398593</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S21" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T21" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U21" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V21" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W21" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X21" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y21" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3227.225672628157</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C22" t="n">
-        <v>3058.28948970025</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D22" t="n">
-        <v>2908.172850287915</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E22" t="n">
-        <v>2760.259756705521</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F22" t="n">
-        <v>2613.369809207611</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G22" t="n">
-        <v>2446.173709922491</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4690.833152398593</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>4690.833152398593</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>4401.757925742791</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>4147.073437536905</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W22" t="n">
-        <v>3857.656267499944</v>
+        <v>1587.385923977512</v>
       </c>
       <c r="X22" t="n">
-        <v>3629.666716601927</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y22" t="n">
-        <v>3408.874137458397</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="23">
@@ -5984,13 +5986,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6023,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6069,22 +6071,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M24" t="n">
-        <v>1072.713683962606</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
-        <v>1700.311647517212</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2252.221377756499</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263527</v>
+        <v>808.8888553856862</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356195</v>
+        <v>639.9526724577793</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>489.8360330454435</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6172,25 +6174,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>2227.361618603201</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>2018.514925172274</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1729.097755135313</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>1501.108204237296</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>990.5373202159259</v>
       </c>
     </row>
     <row r="26">
@@ -6203,49 +6205,49 @@
         <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168601</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6254,10 +6256,10 @@
         <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
         <v>3820.749612123001</v>
@@ -6269,7 +6271,7 @@
         <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6309,22 +6311,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>634.5603720565526</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1231.938859683105</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1859.536823237711</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3342.537229081857</v>
+        <v>1024.063349920562</v>
       </c>
       <c r="C28" t="n">
-        <v>3173.60104615395</v>
+        <v>855.1271669926552</v>
       </c>
       <c r="D28" t="n">
-        <v>3023.484406741615</v>
+        <v>705.0105275803195</v>
       </c>
       <c r="E28" t="n">
-        <v>2875.571313159222</v>
+        <v>557.0974339979264</v>
       </c>
       <c r="F28" t="n">
-        <v>2728.681365661312</v>
+        <v>410.207486500016</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376192</v>
+        <v>243.0113872148959</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.77343521839</v>
+        <v>101.299556057094</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4517.069482196491</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>4517.069482196491</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>4517.069482196491</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>4262.384993990604</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>3972.967823953644</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X28" t="n">
-        <v>3744.978273055627</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y28" t="n">
-        <v>3524.185693912097</v>
+        <v>1205.711814750802</v>
       </c>
     </row>
     <row r="29">
@@ -6452,28 +6454,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6497,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6543,25 +6545,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>372.4964262156764</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>867.8220324314351</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1465.200520057987</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2092.798483612594</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>2092.798483612594</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>948.5505208511906</v>
+        <v>2951.542595286846</v>
       </c>
       <c r="C31" t="n">
-        <v>779.6143379232838</v>
+        <v>2782.606412358939</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>2632.489772946604</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>2484.576679364211</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>2337.6867318663</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>2337.6867318663</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>2337.6867318663</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.6867318663</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296624</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822163</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T31" t="n">
-        <v>2197.062545487567</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U31" t="n">
-        <v>1907.987318831765</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="V31" t="n">
-        <v>1653.302830625878</v>
+        <v>3677.571434467152</v>
       </c>
       <c r="W31" t="n">
-        <v>1363.885660588917</v>
+        <v>3388.154264430192</v>
       </c>
       <c r="X31" t="n">
-        <v>1135.8961096909</v>
+        <v>3160.164713532175</v>
       </c>
       <c r="Y31" t="n">
-        <v>1130.19898568143</v>
+        <v>2951.542595286846</v>
       </c>
     </row>
     <row r="32">
@@ -6686,52 +6688,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
         <v>3820.749612123002</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C33" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D33" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
-        <v>2381.235169913446</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>2381.235169913446</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>2381.235169913446</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>2854.44064873475</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N33" t="n">
-        <v>3482.038612289356</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O33" t="n">
-        <v>4033.948342528643</v>
+        <v>2252.221377756499</v>
       </c>
       <c r="P33" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S33" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T33" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U33" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V33" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W33" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X33" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y33" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3195.647281583948</v>
+        <v>1024.063349920562</v>
       </c>
       <c r="C34" t="n">
-        <v>3026.711098656041</v>
+        <v>855.1271669926552</v>
       </c>
       <c r="D34" t="n">
-        <v>2876.594459243706</v>
+        <v>705.0105275803195</v>
       </c>
       <c r="E34" t="n">
-        <v>2728.681365661313</v>
+        <v>557.0974339979264</v>
       </c>
       <c r="F34" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>4288.376853076439</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>4115.495046492696</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>4115.495046492696</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>3826.077876455735</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X34" t="n">
-        <v>3598.088325557718</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y34" t="n">
-        <v>3377.295746414188</v>
+        <v>1205.711814750802</v>
       </c>
     </row>
     <row r="35">
@@ -6923,10 +6925,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -6935,7 +6937,7 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075813</v>
@@ -7017,25 +7019,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O36" t="n">
-        <v>2297.690135143765</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,13 +7071,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>695.5020655703109</v>
+        <v>948.5505208511906</v>
       </c>
       <c r="C37" t="n">
-        <v>695.5020655703109</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D37" t="n">
-        <v>695.5020655703109</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E37" t="n">
         <v>631.7012443408906</v>
@@ -7105,40 +7107,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570822</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279806</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853365</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580265</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832667</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2222.121449870429</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2002.519984893371</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1713.444758237568</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1458.760270031681</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1169.343099994721</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1169.343099994721</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>948.5505208511906</v>
       </c>
     </row>
     <row r="38">
@@ -7208,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,28 +7250,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1671.859558793925</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>2223.769289033212</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7391,10 +7393,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
         <v>793.7736536168611</v>
@@ -7406,10 +7408,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
@@ -7445,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,19 +7487,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N42" t="n">
         <v>1307.627092998424</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>803.8641191832238</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C43" t="n">
-        <v>634.9279362553167</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429808</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429808</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429808</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578605</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000584</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.741944003834</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.963083580259</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>2267.471598953662</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.396372297859</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V43" t="n">
-        <v>1723.711884091972</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W43" t="n">
-        <v>1434.294714055012</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X43" t="n">
-        <v>1206.305163156994</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y43" t="n">
-        <v>985.5125840134637</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="44">
@@ -7637,31 +7639,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7682,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7731,19 +7733,19 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1804.131916132773</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O45" t="n">
-        <v>2356.04164637206</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1983.7822433412</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
   </sheetData>
@@ -8052,16 +8054,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>168.7434581780643</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8076,10 +8078,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8289,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1.13331566353736e-12</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -23324,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
     </row>
     <row r="12">
@@ -23425,7 +23427,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>114.1584408891651</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -23470,7 +23472,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23662,7 +23664,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>114.1584408891651</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>9.000252501566294</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23887,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>6.176967258617708</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.45968844823058</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23953,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24142,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>32.89260457059906</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,22 +24174,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>186.5330677581684</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24370,10 +24372,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>60.19363748756504</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,22 +24414,22 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>45.37941682721009</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24619,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>73.8577722395346</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,25 +24651,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>75.3754992116848</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272881</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.184474389244</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24850,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>212.9445005827198</v>
+        <v>12.04875628921985</v>
       </c>
     </row>
     <row r="32">
@@ -25084,7 +25086,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>73.85777223953454</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25129,19 +25131,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>115.0314858713384</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25312,13 +25314,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>83.27114962944307</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25360,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>24.80831533902943</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25375,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25552,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25792,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012186</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016448</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>39.708880546957</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>125.5054897610405</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26026,13 +26028,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26041,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,22 +26070,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>45.04089287986326</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>891769.0620792896</v>
+        <v>900681.9533308957</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>876831.7541419416</v>
+        <v>876831.7541419414</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>876831.7541419416</v>
+        <v>876831.7541419414</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>876831.7541419416</v>
+        <v>876831.7541419414</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>876831.7541419416</v>
+        <v>876831.7541419414</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>876831.7541419414</v>
+        <v>876831.7541419416</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>876831.7541419416</v>
+        <v>876831.7541419414</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>876831.7541419414</v>
+        <v>876831.7541419416</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>876831.7541419416</v>
+        <v>876831.7541419414</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>876831.7541419414</v>
+        <v>876831.7541419416</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>554203.1946583915</v>
+      </c>
+      <c r="C2" t="n">
         <v>554203.1946583912</v>
-      </c>
-      <c r="C2" t="n">
-        <v>554203.1946583915</v>
       </c>
       <c r="D2" t="n">
         <v>554203.1946583916</v>
       </c>
       <c r="E2" t="n">
-        <v>544823.9547907541</v>
+        <v>544823.9547907539</v>
       </c>
       <c r="F2" t="n">
-        <v>544823.9547907541</v>
+        <v>544823.9547907538</v>
       </c>
       <c r="G2" t="n">
-        <v>544823.9547907541</v>
+        <v>544823.954790754</v>
       </c>
       <c r="H2" t="n">
         <v>544823.9547907539</v>
       </c>
       <c r="I2" t="n">
+        <v>544823.9547907538</v>
+      </c>
+      <c r="J2" t="n">
         <v>544823.954790754</v>
       </c>
-      <c r="J2" t="n">
-        <v>544823.9547907544</v>
-      </c>
       <c r="K2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.9547907541</v>
       </c>
       <c r="L2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.954790754</v>
       </c>
       <c r="M2" t="n">
-        <v>544823.9547907538</v>
+        <v>544823.9547907545</v>
       </c>
       <c r="N2" t="n">
         <v>544823.9547907539</v>
       </c>
       <c r="O2" t="n">
-        <v>544823.9547907544</v>
+        <v>544823.9547907542</v>
       </c>
       <c r="P2" t="n">
-        <v>544823.9547907541</v>
+        <v>544823.9547907539</v>
       </c>
     </row>
     <row r="3">
@@ -26363,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>203438.7416121055</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26378,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>49110.09270605448</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26415,46 +26417,46 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>137930.4104072219</v>
+      </c>
+      <c r="C4" t="n">
+        <v>89134.17909312024</v>
+      </c>
+      <c r="D4" t="n">
         <v>89134.17909312021</v>
       </c>
-      <c r="C4" t="n">
-        <v>89134.17909312018</v>
-      </c>
-      <c r="D4" t="n">
-        <v>89134.17909312015</v>
-      </c>
       <c r="E4" t="n">
-        <v>9947.144321768899</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="F4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="G4" t="n">
-        <v>9947.144321768899</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="H4" t="n">
-        <v>9947.144321768899</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="I4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="J4" t="n">
-        <v>9947.144321769056</v>
+        <v>9947.144321768959</v>
       </c>
       <c r="K4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768956</v>
       </c>
       <c r="L4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768945</v>
       </c>
       <c r="M4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768956</v>
       </c>
       <c r="N4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="O4" t="n">
-        <v>9947.144321768823</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="P4" t="n">
         <v>9947.144321768897</v>
@@ -26467,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-971609.6707237146</v>
+        <v>-791416.7717645949</v>
       </c>
       <c r="C6" t="n">
-        <v>357135.0750038781</v>
+        <v>153696.3333917721</v>
       </c>
       <c r="D6" t="n">
         <v>357135.0750038782</v>
       </c>
       <c r="E6" t="n">
-        <v>108341.8188377228</v>
+        <v>108341.8188377226</v>
       </c>
       <c r="F6" t="n">
-        <v>433754.2806450781</v>
+        <v>433754.2806450778</v>
       </c>
       <c r="G6" t="n">
-        <v>433754.2806450781</v>
+        <v>433754.2806450778</v>
       </c>
       <c r="H6" t="n">
-        <v>433754.2806450779</v>
+        <v>433754.280645078</v>
       </c>
       <c r="I6" t="n">
-        <v>433754.2806450782</v>
+        <v>433754.2806450778</v>
       </c>
       <c r="J6" t="n">
-        <v>216223.0782478007</v>
+        <v>266149.1028350954</v>
       </c>
       <c r="K6" t="n">
+        <v>384644.1879390236</v>
+      </c>
+      <c r="L6" t="n">
         <v>433754.280645078</v>
       </c>
-      <c r="L6" t="n">
-        <v>433754.2806450779</v>
-      </c>
       <c r="M6" t="n">
-        <v>348699.2527095659</v>
+        <v>348699.2527095666</v>
       </c>
       <c r="N6" t="n">
         <v>433754.2806450779</v>
       </c>
       <c r="O6" t="n">
-        <v>433754.2806450785</v>
+        <v>433754.2806450782</v>
       </c>
       <c r="P6" t="n">
-        <v>433754.2806450781</v>
+        <v>433754.2806450779</v>
       </c>
     </row>
   </sheetData>
@@ -26707,16 +26709,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.542081656192581e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.542081656192581e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.542081656192581e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.542081656192581e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26735,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26787,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>640.5848321000389</v>
+      </c>
+      <c r="C4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="C4" t="n">
-        <v>831.4014554022926</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022929</v>
-      </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26929,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.542081656192581e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26957,10 +26959,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>155.7118084757587</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26972,7 +26974,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>640.5848321000386</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27166,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3.542081656192581e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>61.44380221782467</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>212.8825902797657</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27433,16 +27435,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27549,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>138.1294338896506</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,22 +27584,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>208.3807601228282</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27616,13 +27618,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>60.92013885559311</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27670,13 +27672,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>289.8157596099704</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27774,7 +27776,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>75.50340795434045</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27786,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>215.50576215977</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,13 +27855,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>53.44278321679047</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>38.82058765106858</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28008,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28029,7 +28031,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>214.5414662356961</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28077,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>92.48912964370405</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29275,7 +29277,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -29697,7 +29699,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>4.137151374432935e-12</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -29806,7 +29808,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>1.041087216435699e-12</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -30177,7 +30179,7 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>4.137151374432935e-12</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>359.7096985496632</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>156.3072281639545</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32080,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>175.6052721551105</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>620.1193660647499</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32315,7 +32317,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473073</v>
@@ -32327,16 +32329,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>363.5371514786841</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742439</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175661</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,37 +32554,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>359.7096985496621</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>363.5371514786841</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32789,25 +32791,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>610.054682604365</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>400.8433522134843</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
@@ -33029,7 +33031,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>196.3041720119</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33038,16 +33040,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33263,7 +33265,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>268.1779244693588</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33278,13 +33280,13 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>156.3072281639545</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33500,13 +33502,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>620.1193660647492</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33515,10 +33517,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>437.8531046913764</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33658,7 +33660,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L35" t="n">
         <v>867.846407116256</v>
@@ -33737,7 +33739,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33749,16 +33751,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>309.9424824173362</v>
       </c>
       <c r="P36" t="n">
-        <v>354.9153144485699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33913,10 +33915,10 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33968,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33983,16 +33985,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>230.9747494877451</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34205,22 +34207,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>263.7590256391499</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
@@ -34390,7 +34392,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34451,22 +34453,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>295.9743940159484</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>466.4238188159145</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35108,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35345,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,22 +35494,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>228.3679864663299</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,25 +35728,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>37.76383318075146</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>477.9853321427316</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35963,7 +35965,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>500.3288951674331</v>
@@ -35975,16 +35977,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>220.9409070342396</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,25 +36205,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>228.3679864663288</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36355,7 +36357,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
         <v>479.454324036777</v>
@@ -36437,25 +36439,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>471.5003028244908</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>266.868944799154</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>37.00975247789211</v>
@@ -36677,7 +36679,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>57.74979223202579</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,16 +36688,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295353</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096351</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36838,7 +36840,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
@@ -36911,7 +36913,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>130.3364854949998</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36926,13 +36928,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36993,7 +36995,7 @@
         <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191356</v>
       </c>
       <c r="M31" t="n">
         <v>426.2724270010451</v>
@@ -37148,13 +37150,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>477.9853321427309</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37163,10 +37165,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>303.8786972770462</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37303,10 +37305,10 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
@@ -37385,7 +37387,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37397,16 +37399,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>167.3462379728918</v>
       </c>
       <c r="P36" t="n">
-        <v>220.9409070342396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37473,7 +37475,7 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899115</v>
       </c>
       <c r="O37" t="n">
         <v>373.2618997060454</v>
@@ -37561,10 +37563,10 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37631,16 +37633,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>97.00034207341486</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37853,22 +37855,22 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>132.4173135558165</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295319</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998982</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38038,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,22 +38101,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>161.9999866016181</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
         <v>37.00975247789211</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_15_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_15_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1823065.038245679</v>
+        <v>1819010.9124863</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -664,13 +664,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>169.0477797924961</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>172.2296048804729</v>
       </c>
       <c r="G2" t="n">
         <v>411.547702772954</v>
@@ -712,13 +712,13 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -816,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -834,10 +834,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>9.122075265478191</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,25 +867,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>10.75556025327625</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>298.7307299422358</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -913,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>233.6876255317273</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,22 +949,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247631</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1056,7 +1056,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>91.74341314428739</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1074,7 +1074,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>20.84901245549815</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>2.756342121857402</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,10 +1186,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>140.3578935194473</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>37.59617708813221</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>71.67037196991681</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206816</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1536,7 +1536,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>36.43062059490413</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1545,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,10 +1581,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1779,13 +1779,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>155.1980648094028</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>72.26558381699924</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>113.6427030833203</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>19.91555826189108</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2061,7 +2061,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2134,10 +2134,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2244,19 +2244,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -2295,13 +2295,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>147.6895341487364</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>99.98993057842257</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2320,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2481,10 +2481,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>86.24032515900413</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2557,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2718,13 +2718,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>7.408064079030929</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2769,19 +2769,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>206.5358970628749</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187859</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3085,10 +3085,10 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701339</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3192,13 +3192,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>71.5632757833967</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3249,13 +3249,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3474,13 +3474,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>156.2179706626152</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>105.6507867899569</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>137.9792024346624</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3793,7 +3793,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>160.6789846282037</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4134,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>122.6028762599951</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>241.1435815093809</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1842.294639468329</v>
+        <v>1076.257000807301</v>
       </c>
       <c r="C2" t="n">
-        <v>1473.332122527917</v>
+        <v>707.2944838668893</v>
       </c>
       <c r="D2" t="n">
-        <v>1115.066423921167</v>
+        <v>707.2944838668893</v>
       </c>
       <c r="E2" t="n">
-        <v>944.3110907974333</v>
+        <v>707.2944838668893</v>
       </c>
       <c r="F2" t="n">
         <v>533.3251860078258</v>
@@ -4327,7 +4327,7 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362819</v>
@@ -4360,22 +4360,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.894479532451</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U2" t="n">
-        <v>2228.894479532451</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V2" t="n">
-        <v>2228.894479532451</v>
+        <v>1852.996172847234</v>
       </c>
       <c r="W2" t="n">
-        <v>2228.894479532451</v>
+        <v>1852.996172847234</v>
       </c>
       <c r="X2" t="n">
-        <v>2228.894479532451</v>
+        <v>1852.996172847234</v>
       </c>
       <c r="Y2" t="n">
-        <v>2228.894479532451</v>
+        <v>1462.856840871423</v>
       </c>
     </row>
     <row r="3">
@@ -4391,46 +4391,46 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488047</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>423.1489515180662</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L3" t="n">
-        <v>884.9085321458215</v>
+        <v>599.4122767260733</v>
       </c>
       <c r="M3" t="n">
-        <v>1248.170551105042</v>
+        <v>1233.591260505112</v>
       </c>
       <c r="N3" t="n">
-        <v>1635.455679701987</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O3" t="n">
-        <v>1967.526114878149</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P3" t="n">
-        <v>2214.708848710446</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4442,7 +4442,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1768.196540445805</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="C4" t="n">
-        <v>1599.260357517898</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="D4" t="n">
-        <v>1449.143718105563</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="E4" t="n">
-        <v>1301.23062452317</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F4" t="n">
-        <v>1154.34067702526</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G4" t="n">
-        <v>986.3542123335382</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H4" t="n">
-        <v>977.1399948936612</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I4" t="n">
-        <v>977.1399948936612</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>1002.60916787878</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>1174.299679627706</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>1449.530858294981</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>1750.112669035317</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
-        <v>2048.981932571481</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>2309.019775324693</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>2508.006390496682</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>2459.755921915737</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>2459.755921915737</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>2459.755921915737</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>2170.637584419575</v>
+        <v>1103.39128266864</v>
       </c>
       <c r="V4" t="n">
-        <v>2170.637584419575</v>
+        <v>848.7067944627527</v>
       </c>
       <c r="W4" t="n">
-        <v>2170.637584419575</v>
+        <v>848.7067944627527</v>
       </c>
       <c r="X4" t="n">
-        <v>2170.637584419575</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="Y4" t="n">
-        <v>1949.845005276045</v>
+        <v>620.7172435647353</v>
       </c>
     </row>
     <row r="5">
@@ -4543,40 +4543,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1914.669427940025</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="C5" t="n">
-        <v>1914.669427940025</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
-        <v>1556.403729333274</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>1170.61547673503</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>759.6295719454226</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>344.5571217904191</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4585,34 +4585,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520487</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V5" t="n">
-        <v>2678.274518176916</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W5" t="n">
-        <v>2678.274518176916</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X5" t="n">
-        <v>2304.808759915837</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="Y5" t="n">
-        <v>1914.669427940025</v>
+        <v>2277.953133796418</v>
       </c>
     </row>
     <row r="6">
@@ -4622,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927768</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4664,34 +4664,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1015.34761180106</v>
+        <v>994.2880032601528</v>
       </c>
       <c r="C7" t="n">
-        <v>922.6774975139006</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D7" t="n">
-        <v>772.5608581015648</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4746,31 +4746,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
         <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1645.778206672847</v>
+        <v>1624.71859813194</v>
       </c>
       <c r="U7" t="n">
-        <v>1645.778206672847</v>
+        <v>1624.71859813194</v>
       </c>
       <c r="V7" t="n">
-        <v>1645.778206672847</v>
+        <v>1624.71859813194</v>
       </c>
       <c r="W7" t="n">
-        <v>1645.778206672847</v>
+        <v>1624.71859813194</v>
       </c>
       <c r="X7" t="n">
-        <v>1417.788655774829</v>
+        <v>1396.729047233923</v>
       </c>
       <c r="Y7" t="n">
-        <v>1196.996076631299</v>
+        <v>1175.936468090393</v>
       </c>
     </row>
     <row r="8">
@@ -4780,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1561.900772669911</v>
+        <v>1239.503030201924</v>
       </c>
       <c r="C8" t="n">
-        <v>1192.938255729499</v>
+        <v>870.5405132615124</v>
       </c>
       <c r="D8" t="n">
-        <v>1192.938255729499</v>
+        <v>512.2748146547618</v>
       </c>
       <c r="E8" t="n">
-        <v>1192.938255729499</v>
+        <v>126.4865620565176</v>
       </c>
       <c r="F8" t="n">
-        <v>781.9523509398919</v>
+        <v>119.5410613073142</v>
       </c>
       <c r="G8" t="n">
-        <v>366.8799007848883</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>69.29630039365554</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4834,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520488</v>
+        <v>3073.539503116623</v>
       </c>
       <c r="V8" t="n">
-        <v>2678.274518176917</v>
+        <v>2742.476615773052</v>
       </c>
       <c r="W8" t="n">
-        <v>2325.505862906803</v>
+        <v>2389.707960502938</v>
       </c>
       <c r="X8" t="n">
-        <v>1952.040104645723</v>
+        <v>2016.242202241858</v>
       </c>
       <c r="Y8" t="n">
-        <v>1561.900772669911</v>
+        <v>1626.102870266046</v>
       </c>
     </row>
     <row r="9">
@@ -4880,25 +4880,25 @@
         <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228005</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>680.3679798527295</v>
+        <v>718.3439163053883</v>
       </c>
       <c r="C10" t="n">
-        <v>511.4317969248226</v>
+        <v>549.4077333774815</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124869</v>
+        <v>399.2910939651457</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>251.3780003827526</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>104.4880528848422</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>104.4880528848422</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>104.4880528848422</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4983,31 +4983,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1854.900232967364</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V10" t="n">
-        <v>1600.215744761477</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="W10" t="n">
-        <v>1310.798574724517</v>
+        <v>1348.774511177176</v>
       </c>
       <c r="X10" t="n">
-        <v>1082.809023826499</v>
+        <v>1120.784960279158</v>
       </c>
       <c r="Y10" t="n">
-        <v>862.0164446829692</v>
+        <v>899.9923811356281</v>
       </c>
     </row>
     <row r="11">
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5038,31 +5038,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192588</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5086,7 +5086,7 @@
         <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O12" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797186</v>
@@ -5202,10 +5202,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5229,22 +5229,22 @@
         <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.96308358026</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>2273.199413378161</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="14">
@@ -5269,28 +5269,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5299,7 +5299,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5354,28 +5354,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1089.57599612053</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C16" t="n">
-        <v>920.6398131926233</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D16" t="n">
-        <v>770.5231737802875</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="E16" t="n">
-        <v>622.6100801978944</v>
+        <v>397.4723325755821</v>
       </c>
       <c r="F16" t="n">
-        <v>475.720132699984</v>
+        <v>250.5823850776717</v>
       </c>
       <c r="G16" t="n">
-        <v>308.5240334148639</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>166.812202257062</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2264.108249235165</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>2009.423761029278</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1720.006590992317</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1492.0170400943</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1271.22446095077</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5509,28 +5509,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,25 +5591,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>738.7889117913853</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M18" t="n">
-        <v>1336.167399417937</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>1963.765362972544</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>560.7825789706076</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C19" t="n">
-        <v>391.8463960427007</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D19" t="n">
-        <v>241.729756630365</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2426.846358063199</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2243.991523718104</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2024.390058741045</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1735.314832085242</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1480.630343879355</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W19" t="n">
-        <v>1191.213173842395</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X19" t="n">
-        <v>963.2236229443774</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y19" t="n">
-        <v>742.4310438008473</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="20">
@@ -5749,10 +5749,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
@@ -5767,7 +5767,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>956.9553291057244</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C22" t="n">
-        <v>788.0191461778176</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D22" t="n">
-        <v>637.9025067654818</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>489.9894131830887</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
@@ -5943,19 +5943,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V22" t="n">
-        <v>1688.385853854706</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W22" t="n">
-        <v>1587.385923977512</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X22" t="n">
-        <v>1359.396373079494</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y22" t="n">
-        <v>1138.603793935964</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="23">
@@ -5971,13 +5971,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5986,7 +5986,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -6004,7 +6004,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6065,31 +6065,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>710.2486053718725</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1307.627092998424</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>808.8888553856862</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>639.9526724577793</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>489.8360330454435</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1211.329899359456</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>990.5373202159259</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6205,58 +6205,58 @@
         <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466572</v>
@@ -6299,25 +6299,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1024.063349920562</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>855.1271669926552</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>705.0105275803195</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>557.0974339979264</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>410.207486500016</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>243.0113872148959</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>101.299556057094</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6417,19 +6417,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1433.701365648819</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>1205.711814750802</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>1205.711814750802</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6451,31 +6451,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6539,28 +6539,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2951.542595286846</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C31" t="n">
-        <v>2782.606412358939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D31" t="n">
-        <v>2632.489772946604</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>2484.576679364211</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>2337.6867318663</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>2337.6867318663</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>2337.6867318663</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.6867318663</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296624</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822163</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>4440.9326143059</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T31" t="n">
-        <v>4221.331149328841</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U31" t="n">
-        <v>3932.255922673039</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V31" t="n">
-        <v>3677.571434467152</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W31" t="n">
-        <v>3388.154264430192</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X31" t="n">
-        <v>3160.164713532175</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y31" t="n">
-        <v>2951.542595286846</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6697,19 +6697,19 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355936</v>
@@ -6721,7 +6721,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6736,16 +6736,16 @@
         <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6788,13 +6788,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1072.713683962606</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>1700.311647517212</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>2252.221377756499</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1024.063349920562</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>855.1271669926552</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D34" t="n">
-        <v>705.0105275803195</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>557.0974339979264</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797186</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1433.701365648819</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>1205.711814750802</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>1205.711814750802</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6931,55 +6931,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,28 +7010,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,10 +7071,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>948.5505208511906</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C37" t="n">
-        <v>779.6143379232838</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D37" t="n">
         <v>779.6143379232838</v>
@@ -7086,13 +7086,13 @@
         <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H37" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7107,40 +7107,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570822</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279806</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853365</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580265</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832667</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2222.121449870429</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T37" t="n">
-        <v>2002.519984893371</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U37" t="n">
-        <v>1713.444758237568</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V37" t="n">
-        <v>1458.760270031681</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W37" t="n">
-        <v>1169.343099994721</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X37" t="n">
-        <v>1169.343099994721</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y37" t="n">
-        <v>948.5505208511906</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="38">
@@ -7165,16 +7165,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="41">
@@ -7399,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192596</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>579.1554649516142</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1176.533952578166</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>707.672526468518</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C43" t="n">
-        <v>538.7363435406111</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D43" t="n">
-        <v>388.6197041282753</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7066105458822</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7596,25 +7596,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U43" t="n">
-        <v>1882.204779583153</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V43" t="n">
-        <v>1627.520291377266</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W43" t="n">
-        <v>1338.103121340305</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X43" t="n">
-        <v>1110.113570442288</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y43" t="n">
-        <v>889.3209912987577</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="44">
@@ -7636,31 +7636,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>1859.536823237711</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263527</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1983.7822433412</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1729.097755135313</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8057,19 +8057,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>168.7434581780643</v>
+        <v>6.454437538929426</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>273.6534998179981</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>249.3877325071647</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8078,10 +8078,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8291,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1.13331566353736e-12</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -23326,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23424,7 +23424,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>110.003342051665</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631857007</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>10.32607348286601</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>9.000252501566294</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>34.97276993489203</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.45968844823058</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24132,19 +24132,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24183,13 +24183,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>186.5330677581684</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24369,10 +24369,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>60.19363748756504</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24606,13 +24606,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>73.8577722395346</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,19 +24657,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>12.04875628921985</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25080,13 +25080,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>73.85777223953454</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25137,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25362,13 +25362,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>24.80831533902943</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>180.5336875992872</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,13 +25836,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>125.5054897610405</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26022,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,22 +26070,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>45.04089287986326</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>876831.7541419416</v>
+        <v>876831.7541419414</v>
       </c>
     </row>
     <row r="7">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>876831.7541419416</v>
+        <v>876831.7541419414</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>876831.7541419414</v>
+        <v>876831.7541419416</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>876831.7541419416</v>
+        <v>876831.7541419414</v>
       </c>
     </row>
   </sheetData>
@@ -26313,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>554203.1946583914</v>
+      </c>
+      <c r="C2" t="n">
+        <v>554203.1946583913</v>
+      </c>
+      <c r="D2" t="n">
         <v>554203.1946583915</v>
       </c>
-      <c r="C2" t="n">
-        <v>554203.1946583912</v>
-      </c>
-      <c r="D2" t="n">
-        <v>554203.1946583916</v>
-      </c>
       <c r="E2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.9547907538</v>
       </c>
       <c r="F2" t="n">
-        <v>544823.9547907538</v>
+        <v>544823.9547907535</v>
       </c>
       <c r="G2" t="n">
-        <v>544823.954790754</v>
+        <v>544823.9547907542</v>
       </c>
       <c r="H2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.9547907541</v>
       </c>
       <c r="I2" t="n">
-        <v>544823.9547907538</v>
+        <v>544823.9547907537</v>
       </c>
       <c r="J2" t="n">
         <v>544823.954790754</v>
@@ -26343,19 +26343,19 @@
         <v>544823.9547907541</v>
       </c>
       <c r="L2" t="n">
-        <v>544823.954790754</v>
+        <v>544823.9547907541</v>
       </c>
       <c r="M2" t="n">
-        <v>544823.9547907545</v>
+        <v>544823.9547907541</v>
       </c>
       <c r="N2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.9547907541</v>
       </c>
       <c r="O2" t="n">
         <v>544823.9547907542</v>
       </c>
       <c r="P2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.9547907537</v>
       </c>
     </row>
     <row r="3">
@@ -26368,19 +26368,19 @@
         <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>203438.7416121055</v>
+        <v>203438.7416121059</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073548</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26392,7 +26392,7 @@
         <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
-        <v>49110.09270605448</v>
+        <v>49110.09270605454</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26420,10 +26420,10 @@
         <v>137930.4104072219</v>
       </c>
       <c r="C4" t="n">
-        <v>89134.17909312024</v>
+        <v>89134.17909312017</v>
       </c>
       <c r="D4" t="n">
-        <v>89134.17909312021</v>
+        <v>89134.17909312018</v>
       </c>
       <c r="E4" t="n">
         <v>9947.144321768897</v>
@@ -26432,25 +26432,25 @@
         <v>9947.144321768897</v>
       </c>
       <c r="G4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768899</v>
       </c>
       <c r="H4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768899</v>
       </c>
       <c r="I4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="J4" t="n">
-        <v>9947.144321768959</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="K4" t="n">
-        <v>9947.144321768956</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="L4" t="n">
-        <v>9947.144321768945</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="M4" t="n">
-        <v>9947.144321768956</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="N4" t="n">
         <v>9947.144321768897</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-791416.7717645949</v>
+        <v>-791416.7717645948</v>
       </c>
       <c r="C6" t="n">
-        <v>153696.3333917721</v>
+        <v>153696.333391772</v>
       </c>
       <c r="D6" t="n">
-        <v>357135.0750038782</v>
+        <v>357135.0750038781</v>
       </c>
       <c r="E6" t="n">
-        <v>108341.8188377226</v>
+        <v>107994.439583366</v>
       </c>
       <c r="F6" t="n">
-        <v>433754.2806450778</v>
+        <v>433406.9013907203</v>
       </c>
       <c r="G6" t="n">
-        <v>433754.2806450778</v>
+        <v>433406.9013907213</v>
       </c>
       <c r="H6" t="n">
-        <v>433754.280645078</v>
+        <v>433406.9013907211</v>
       </c>
       <c r="I6" t="n">
-        <v>433754.2806450778</v>
+        <v>433406.9013907207</v>
       </c>
       <c r="J6" t="n">
-        <v>266149.1028350954</v>
+        <v>265801.7235807385</v>
       </c>
       <c r="K6" t="n">
-        <v>384644.1879390236</v>
+        <v>384296.8086846666</v>
       </c>
       <c r="L6" t="n">
-        <v>433754.280645078</v>
+        <v>433406.9013907212</v>
       </c>
       <c r="M6" t="n">
-        <v>348699.2527095666</v>
+        <v>348351.8734552093</v>
       </c>
       <c r="N6" t="n">
-        <v>433754.2806450779</v>
+        <v>433406.9013907211</v>
       </c>
       <c r="O6" t="n">
-        <v>433754.2806450782</v>
+        <v>433406.9013907213</v>
       </c>
       <c r="P6" t="n">
-        <v>433754.2806450779</v>
+        <v>433406.9013907207</v>
       </c>
     </row>
   </sheetData>
@@ -26709,16 +26709,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.542081656192581e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.542081656192581e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.542081656192581e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.542081656192581e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26822,7 +26822,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.542081656192581e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26962,19 +26962,19 @@
         <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>155.7118084757587</v>
+        <v>155.711808475759</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000386</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>3.542081656192581e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,13 +27384,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>212.8825902797657</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>234.6464408612385</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27432,13 +27432,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27554,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.1294338896506</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,25 +27587,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.4715938679244</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27618,7 +27618,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>66.54216182877173</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>60.92013885559311</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27776,7 +27776,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>75.50340795434045</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27794,7 +27794,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27827,7 +27827,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>198.699936820671</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>38.82058765106858</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,10 +27906,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>110.6372784394547</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28031,7 +28031,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>58.75624332170588</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28067,10 +28067,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>214.5414662356961</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28095,7 +28095,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28268,7 +28268,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>-4.524736141320318e-12</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -29277,7 +29277,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -29699,7 +29699,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>4.137151374432935e-12</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -29808,7 +29808,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>1.041087216435699e-12</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -30179,7 +30179,7 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>4.137151374432935e-12</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31600,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31688,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31706,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31791,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,40 +31837,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P12" t="n">
-        <v>156.3072281639545</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32074,31 +32074,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,34 +32305,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>337.5641188593844</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32557,7 +32557,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>337.5641188593844</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32566,7 +32566,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>363.5371514786841</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32575,7 +32575,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32785,34 +32785,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>610.054682604365</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32943,7 +32943,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33040,7 +33040,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33180,7 +33180,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33277,13 +33277,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>156.3072281639545</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33508,7 +33508,7 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33517,7 +33517,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>437.8531046913764</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33660,7 +33660,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
         <v>867.846407116256</v>
@@ -33733,13 +33733,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33751,10 +33751,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>309.9424824173362</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33915,7 +33915,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34216,25 +34216,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>263.7590256391499</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34456,22 +34456,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N45" t="n">
-        <v>320.9147064709964</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34777,19 +34777,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>466.4238188159145</v>
+        <v>304.1347981767797</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="O3" t="n">
         <v>335.4246819961231</v>
@@ -34798,10 +34798,10 @@
         <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35108,13 +35108,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35345,13 +35345,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P12" t="n">
-        <v>22.33282074962425</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35576,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K14" t="n">
         <v>479.454324036777</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,28 +35959,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>199.0097390795102</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,7 +36205,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>199.0097390795102</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36214,7 +36214,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>220.9409070342396</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36223,7 +36223,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>471.5003028244908</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36591,7 +36591,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36688,7 +36688,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36925,13 +36925,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>22.33282074962425</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36995,7 +36995,7 @@
         <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191356</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
         <v>426.2724270010451</v>
@@ -37156,7 +37156,7 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37165,7 +37165,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>303.8786972770462</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37308,7 +37308,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37399,10 +37399,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>167.3462379728918</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37475,7 +37475,7 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899115</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
         <v>373.2618997060454</v>
@@ -37563,7 +37563,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,25 +37864,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>132.4173135558165</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38104,22 +38104,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N45" t="n">
-        <v>189.5729943876631</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_15_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_15_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1819010.9124863</v>
+        <v>1820771.442789085</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283199</v>
       </c>
     </row>
     <row r="9">
@@ -664,22 +664,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>172.2296048804729</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>250.8778957178056</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -870,13 +870,13 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>189.8991866989203</v>
       </c>
       <c r="U4" t="n">
-        <v>10.75556025327625</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>298.7307299422358</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -952,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>150.9601371840612</v>
       </c>
     </row>
     <row r="6">
@@ -1071,10 +1071,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>39.47168301525344</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,10 +1104,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>20.84901245549815</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>74.32262784155991</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1144,13 +1144,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1186,22 +1186,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>140.3578935194473</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>37.59617708813221</v>
+        <v>74.75769145492379</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1536,10 +1536,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>36.43062059490413</v>
+        <v>0.8253826161909023</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1776,16 +1776,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>155.1980648094028</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,10 +1818,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>210.340261657467</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2007,7 +2007,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>113.6427030833203</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2061,7 +2061,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>147.6895341487364</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2414,7 +2414,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2617,7 +2617,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174109</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2651,7 +2651,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2715,22 +2715,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>123.9815576456707</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2769,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2888,7 +2888,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2955,7 +2955,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>113.6427030833203</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S31" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3009,7 +3009,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187859</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3125,7 +3125,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3198,13 +3198,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>83.06560892427807</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179482</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444115</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3362,7 +3362,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428172</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>105.6507867899569</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576153</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3599,7 +3599,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>137.9792024346624</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3836,7 +3836,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S43" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>239.7247859410132</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>122.6028762599951</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4306,40 +4306,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1076.257000807301</v>
+        <v>1201.12525314008</v>
       </c>
       <c r="C2" t="n">
-        <v>707.2944838668893</v>
+        <v>832.1627361996682</v>
       </c>
       <c r="D2" t="n">
-        <v>707.2944838668893</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="E2" t="n">
-        <v>707.2944838668893</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F2" t="n">
-        <v>533.3251860078258</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U2" t="n">
-        <v>2184.059060190805</v>
+        <v>2308.927312523584</v>
       </c>
       <c r="V2" t="n">
-        <v>1852.996172847234</v>
+        <v>1977.864425180013</v>
       </c>
       <c r="W2" t="n">
-        <v>1852.996172847234</v>
+        <v>1977.864425180013</v>
       </c>
       <c r="X2" t="n">
-        <v>1852.996172847234</v>
+        <v>1977.864425180013</v>
       </c>
       <c r="Y2" t="n">
-        <v>1462.856840871423</v>
+        <v>1587.725093204202</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182518</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310614</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L3" t="n">
-        <v>599.4122767260733</v>
+        <v>979.6730931919905</v>
       </c>
       <c r="M3" t="n">
-        <v>1233.591260505112</v>
+        <v>1342.93511215121</v>
       </c>
       <c r="N3" t="n">
-        <v>1867.77024428415</v>
+        <v>1730.220240748155</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460312</v>
+        <v>2062.290675924317</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2309.473409756614</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4442,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>620.7172435647353</v>
+        <v>514.9860105762135</v>
       </c>
       <c r="C4" t="n">
-        <v>620.7172435647353</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="D4" t="n">
-        <v>620.7172435647353</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E4" t="n">
-        <v>620.7172435647353</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F4" t="n">
-        <v>473.8272960668249</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.233965749941</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T4" t="n">
-        <v>1114.255484944676</v>
+        <v>1145.416605448001</v>
       </c>
       <c r="U4" t="n">
-        <v>1103.39128266864</v>
+        <v>1145.416605448001</v>
       </c>
       <c r="V4" t="n">
-        <v>848.7067944627527</v>
+        <v>1145.416605448001</v>
       </c>
       <c r="W4" t="n">
-        <v>848.7067944627527</v>
+        <v>1145.416605448001</v>
       </c>
       <c r="X4" t="n">
-        <v>620.7172435647353</v>
+        <v>917.4270545499834</v>
       </c>
       <c r="Y4" t="n">
-        <v>620.7172435647353</v>
+        <v>696.6344754064532</v>
       </c>
     </row>
     <row r="5">
@@ -4543,7 +4543,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2277.953133796418</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C5" t="n">
         <v>1976.204921733553</v>
@@ -4564,19 +4564,19 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4585,34 +4585,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410103</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.721789066532</v>
+        <v>2884.252265792694</v>
       </c>
       <c r="W5" t="n">
-        <v>2277.953133796418</v>
+        <v>2884.252265792694</v>
       </c>
       <c r="X5" t="n">
-        <v>2277.953133796418</v>
+        <v>2884.252265792694</v>
       </c>
       <c r="Y5" t="n">
-        <v>2277.953133796418</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="6">
@@ -4637,16 +4637,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>994.2880032601528</v>
+        <v>985.2668805437596</v>
       </c>
       <c r="C7" t="n">
-        <v>825.3518203322459</v>
+        <v>816.3306976158527</v>
       </c>
       <c r="D7" t="n">
-        <v>675.2351809199101</v>
+        <v>666.214058203517</v>
       </c>
       <c r="E7" t="n">
-        <v>527.322087337517</v>
+        <v>518.3009646211239</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396067</v>
+        <v>371.4110171232135</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143257</v>
+        <v>203.7081804979324</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4752,25 +4752,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T7" t="n">
-        <v>1624.71859813194</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U7" t="n">
-        <v>1624.71859813194</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="V7" t="n">
-        <v>1624.71859813194</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="W7" t="n">
-        <v>1624.71859813194</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="X7" t="n">
-        <v>1396.729047233923</v>
+        <v>1387.707924517529</v>
       </c>
       <c r="Y7" t="n">
-        <v>1175.936468090393</v>
+        <v>1166.915345373999</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1239.503030201924</v>
+        <v>2051.278283189674</v>
       </c>
       <c r="C8" t="n">
-        <v>870.5405132615124</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>512.2748146547618</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>126.4865620565176</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>119.5410613073142</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4834,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3073.539503116623</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2742.476615773052</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2389.707960502938</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="X8" t="n">
-        <v>2016.242202241858</v>
+        <v>2051.278283189674</v>
       </c>
       <c r="Y8" t="n">
-        <v>1626.102870266046</v>
+        <v>2051.278283189674</v>
       </c>
     </row>
     <row r="9">
@@ -4874,10 +4874,10 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4886,19 +4886,19 @@
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>718.3439163053883</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="C10" t="n">
-        <v>549.4077333774815</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="D10" t="n">
-        <v>399.2910939651457</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="E10" t="n">
-        <v>251.3780003827526</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="F10" t="n">
-        <v>104.4880528848422</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="G10" t="n">
-        <v>104.4880528848422</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="H10" t="n">
-        <v>104.4880528848422</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218343</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1638.191681214136</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1638.191681214136</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1348.774511177176</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X10" t="n">
-        <v>1120.784960279158</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="Y10" t="n">
-        <v>899.9923811356281</v>
+        <v>142.0249360836216</v>
       </c>
     </row>
     <row r="11">
@@ -5038,31 +5038,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192588</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5117,7 +5117,7 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J12" t="n">
         <v>245.2306927803937</v>
@@ -5129,10 +5129,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348531</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>763.7541388327643</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C13" t="n">
-        <v>594.8179559048574</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D13" t="n">
-        <v>444.7013164925216</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F13" t="n">
         <v>261.0127623330919</v>
@@ -5202,10 +5202,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5226,25 +5226,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.286391947399</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1683.601903741512</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1394.184733704551</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1166.195182806534</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y13" t="n">
-        <v>945.402603663004</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="14">
@@ -5275,13 +5275,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5296,7 +5296,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>695.5020655703109</v>
+        <v>810.0653816078141</v>
       </c>
       <c r="C16" t="n">
-        <v>695.5020655703109</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D16" t="n">
-        <v>545.3854261579752</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E16" t="n">
-        <v>397.4723325755821</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F16" t="n">
-        <v>250.5823850776717</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5466,22 +5466,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1984.597634722449</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1729.913146516562</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1440.495976479601</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1212.506425581584</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>991.7138464380538</v>
       </c>
     </row>
     <row r="17">
@@ -5506,31 +5506,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,22 +5591,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>768.5380889459582</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>599.6019060180513</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>950.1865537761979</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5749,25 +5749,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5837,13 +5837,13 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5943,19 +5943,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5965,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004712</v>
@@ -5977,31 +5977,31 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
@@ -6016,25 +6016,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6065,7 +6065,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803937</v>
@@ -6077,10 +6077,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6150,10 +6150,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I26" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V26" t="n">
         <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6299,25 +6299,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516141</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400639</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400639</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400639</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>365.9405071576708</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>219.0505596597605</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>219.0505596597605</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910802</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.56011257081</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279795</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853354</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580253</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832656</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.06254548756</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510501</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854699</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648812</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611851</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138338</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703037</v>
       </c>
     </row>
     <row r="29">
@@ -6451,7 +6451,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6460,31 +6460,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6539,7 +6539,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
         <v>245.2306927803937</v>
@@ -6551,10 +6551,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,10 +6597,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>653.7474797708871</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C31" t="n">
-        <v>484.8112968429803</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D31" t="n">
         <v>484.8112968429803</v>
@@ -6612,7 +6612,7 @@
         <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H31" t="n">
         <v>175.9033664000583</v>
@@ -6624,10 +6624,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1573.595244679635</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W31" t="n">
-        <v>1284.178074642674</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X31" t="n">
-        <v>1056.188523744657</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y31" t="n">
-        <v>835.3959446011269</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6697,19 +6697,19 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355936</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6776,22 +6776,22 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400676</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121607</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121607</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121607</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797186</v>
@@ -6861,49 +6861,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797706</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910805</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570814</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279799</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853357</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580257</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832659</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487564</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510505</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611855</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138374</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703073</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406466</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168588</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362663</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="36">
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,25 +7010,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516141</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,37 +7071,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578603</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7122,25 +7122,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7165,43 +7165,43 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
         <v>4405.252601474784</v>
@@ -7247,25 +7247,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,37 +7308,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7399,7 +7399,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362687</v>
@@ -7408,31 +7408,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7487,22 +7487,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>653.7474797708871</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C43" t="n">
-        <v>484.8112968429803</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429803</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7572,10 +7572,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1828.279732885522</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V43" t="n">
-        <v>1573.595244679635</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W43" t="n">
-        <v>1284.178074642674</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X43" t="n">
-        <v>1056.188523744657</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y43" t="n">
-        <v>835.3959446011269</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="44">
@@ -7636,31 +7636,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7724,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -8057,19 +8057,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>6.454437538929426</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>273.6534998179981</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>249.3877325071647</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8078,10 +8078,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>138.9393975111067</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23263,7 +23263,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23424,10 +23424,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>110.003342051665</v>
+        <v>145.6085800303783</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631857007</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23664,16 +23664,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>10.32607348286601</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,10 +23706,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>75.84421273177711</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>34.97276993489203</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>16.31315520055314</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>34.97276993489209</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25086,16 +25086,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>62.35543909865318</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25171,7 +25171,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-12</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194217</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,13 +25362,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>180.5336875992872</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>900681.9533308957</v>
+        <v>900681.9533308959</v>
       </c>
     </row>
     <row r="3">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>876831.7541419414</v>
+        <v>876831.7541419416</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>876831.7541419414</v>
+        <v>876831.7541419412</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>876831.7541419414</v>
+        <v>876831.7541419413</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>876831.7541419416</v>
+        <v>876831.7541419412</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>876831.7541419416</v>
+        <v>876831.7541419414</v>
       </c>
     </row>
     <row r="15">
@@ -26316,46 +26316,46 @@
         <v>554203.1946583914</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583913</v>
+        <v>554203.1946583914</v>
       </c>
       <c r="D2" t="n">
         <v>554203.1946583915</v>
       </c>
       <c r="E2" t="n">
+        <v>544823.9547907539</v>
+      </c>
+      <c r="F2" t="n">
+        <v>544823.9547907539</v>
+      </c>
+      <c r="G2" t="n">
         <v>544823.9547907538</v>
-      </c>
-      <c r="F2" t="n">
-        <v>544823.9547907535</v>
-      </c>
-      <c r="G2" t="n">
-        <v>544823.9547907542</v>
       </c>
       <c r="H2" t="n">
         <v>544823.9547907541</v>
       </c>
       <c r="I2" t="n">
+        <v>544823.9547907541</v>
+      </c>
+      <c r="J2" t="n">
+        <v>544823.9547907539</v>
+      </c>
+      <c r="K2" t="n">
+        <v>544823.9547907539</v>
+      </c>
+      <c r="L2" t="n">
+        <v>544823.954790754</v>
+      </c>
+      <c r="M2" t="n">
         <v>544823.9547907537</v>
       </c>
-      <c r="J2" t="n">
-        <v>544823.954790754</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="N2" t="n">
+        <v>544823.9547907539</v>
+      </c>
+      <c r="O2" t="n">
         <v>544823.9547907541</v>
       </c>
-      <c r="L2" t="n">
-        <v>544823.9547907541</v>
-      </c>
-      <c r="M2" t="n">
-        <v>544823.9547907541</v>
-      </c>
-      <c r="N2" t="n">
-        <v>544823.9547907541</v>
-      </c>
-      <c r="O2" t="n">
-        <v>544823.9547907542</v>
-      </c>
       <c r="P2" t="n">
-        <v>544823.9547907537</v>
+        <v>544823.9547907538</v>
       </c>
     </row>
     <row r="3">
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
-        <v>203438.7416121059</v>
+        <v>203438.741612106</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073548</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099824</v>
       </c>
       <c r="K3" t="n">
         <v>49110.09270605454</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551167</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26420,10 +26420,10 @@
         <v>137930.4104072219</v>
       </c>
       <c r="C4" t="n">
-        <v>89134.17909312017</v>
+        <v>89134.17909312024</v>
       </c>
       <c r="D4" t="n">
-        <v>89134.17909312018</v>
+        <v>89134.17909312015</v>
       </c>
       <c r="E4" t="n">
         <v>9947.144321768897</v>
@@ -26432,10 +26432,10 @@
         <v>9947.144321768897</v>
       </c>
       <c r="G4" t="n">
-        <v>9947.144321768899</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="H4" t="n">
-        <v>9947.144321768899</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="I4" t="n">
         <v>9947.144321768897</v>
@@ -26453,7 +26453,7 @@
         <v>9947.144321768897</v>
       </c>
       <c r="N4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768936</v>
       </c>
       <c r="O4" t="n">
         <v>9947.144321768897</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-791416.7717645948</v>
+        <v>-791416.7717645946</v>
       </c>
       <c r="C6" t="n">
-        <v>153696.333391772</v>
+        <v>153696.3333917719</v>
       </c>
       <c r="D6" t="n">
         <v>357135.0750038781</v>
       </c>
       <c r="E6" t="n">
-        <v>107994.439583366</v>
+        <v>108307.0809122872</v>
       </c>
       <c r="F6" t="n">
-        <v>433406.9013907203</v>
+        <v>433719.5427196422</v>
       </c>
       <c r="G6" t="n">
-        <v>433406.9013907213</v>
+        <v>433719.5427196418</v>
       </c>
       <c r="H6" t="n">
-        <v>433406.9013907211</v>
+        <v>433719.5427196425</v>
       </c>
       <c r="I6" t="n">
-        <v>433406.9013907207</v>
+        <v>433719.5427196426</v>
       </c>
       <c r="J6" t="n">
-        <v>265801.7235807385</v>
+        <v>266114.3649096598</v>
       </c>
       <c r="K6" t="n">
-        <v>384296.8086846666</v>
+        <v>384609.4500135877</v>
       </c>
       <c r="L6" t="n">
-        <v>433406.9013907212</v>
+        <v>433719.5427196423</v>
       </c>
       <c r="M6" t="n">
-        <v>348351.8734552093</v>
+        <v>348664.5147841303</v>
       </c>
       <c r="N6" t="n">
-        <v>433406.9013907211</v>
+        <v>433719.5427196422</v>
       </c>
       <c r="O6" t="n">
-        <v>433406.9013907213</v>
+        <v>433719.5427196425</v>
       </c>
       <c r="P6" t="n">
-        <v>433406.9013907207</v>
+        <v>433719.5427196419</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26789,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022929</v>
@@ -26822,7 +26822,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26959,23 +26959,23 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>155.711808475759</v>
+        <v>155.7118084757592</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>190.8166233022541</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000384</v>
       </c>
       <c r="K4" t="n">
         <v>190.8166233022541</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.306832697355</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022541</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27384,22 +27384,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>234.6464408612385</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>0.1673544106564009</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27590,13 +27590,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>30.84950929829159</v>
       </c>
       <c r="U4" t="n">
-        <v>275.4715938679244</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27605,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>66.54216182877173</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27672,19 +27672,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>235.2778014719924</v>
       </c>
     </row>
     <row r="6">
@@ -27791,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>105.2833318990673</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27824,10 +27824,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>198.699936820671</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>290.9502639294477</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27864,13 +27864,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27906,22 +27906,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>110.6372784394547</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28031,7 +28031,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>58.75624332170588</v>
+        <v>21.5947289549143</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28095,7 +28095,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28268,7 +28268,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>-4.524736141320318e-12</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -29337,7 +29337,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>2.103206497849897e-12</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -29465,7 +29465,7 @@
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>-6.97563488453549e-12</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -29805,7 +29805,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -29936,7 +29936,7 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>-2.345015412723166e-12</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -30276,7 +30276,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>8.242295734817162e-13</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,34 +31135,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31752,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31791,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31840,22 +31840,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558023</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,10 +31867,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,19 +32317,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>337.5641188593844</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32557,7 +32557,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>337.5641188593844</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32566,7 +32566,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32700,37 +32700,37 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R23" t="n">
         <v>345.4516222043725</v>
@@ -32739,10 +32739,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32788,22 +32788,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M24" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,10 +32815,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U24" t="n">
         <v>0.1935814387275954</v>
@@ -32864,28 +32864,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J25" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N25" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q25" t="n">
         <v>206.5643005515927</v>
@@ -32894,7 +32894,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
@@ -32937,37 +32937,37 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R26" t="n">
         <v>345.4516222043725</v>
@@ -32976,10 +32976,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33025,22 +33025,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,10 +33052,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U27" t="n">
         <v>0.1935814387275954</v>
@@ -33101,28 +33101,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N28" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q28" t="n">
         <v>206.5643005515927</v>
@@ -33131,7 +33131,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043738</v>
       </c>
       <c r="S29" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33262,22 +33262,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,10 +33289,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U30" t="n">
         <v>0.1935814387275954</v>
@@ -33338,28 +33338,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N31" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q31" t="n">
         <v>206.5643005515927</v>
@@ -33368,7 +33368,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33411,37 +33411,37 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33450,10 +33450,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33496,25 +33496,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M33" t="n">
-        <v>446.0127311990643</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,10 +33526,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U33" t="n">
         <v>0.1935814387275954</v>
@@ -33575,28 +33575,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N34" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q34" t="n">
         <v>206.5643005515927</v>
@@ -33605,7 +33605,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33648,37 +33648,37 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33687,10 +33687,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33736,22 +33736,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,10 +33763,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U36" t="n">
         <v>0.1935814387275954</v>
@@ -33812,28 +33812,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N37" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q37" t="n">
         <v>206.5643005515927</v>
@@ -33842,7 +33842,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33885,37 +33885,37 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33924,10 +33924,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33970,25 +33970,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,10 +34000,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34049,28 +34049,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N40" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34079,7 +34079,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34122,37 +34122,37 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162578</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34161,10 +34161,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34207,25 +34207,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,10 +34237,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34286,28 +34286,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34316,7 +34316,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34456,13 +34456,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>446.0127311990643</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>304.1347981767797</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>640.5848321000387</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>640.5848321000387</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>255.4201198419612</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113578</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35576,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
         <v>479.454324036777</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,16 +35968,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>199.0097390795102</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36205,7 +36205,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>199.0097390795102</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36214,7 +36214,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L23" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,25 +36433,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M24" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K25" t="n">
         <v>264.3325884096349</v>
@@ -36524,19 +36524,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,31 +36591,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36670,25 +36670,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K28" t="n">
         <v>264.3325884096349</v>
@@ -36761,19 +36761,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001038</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P28" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902418</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,25 +36907,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K31" t="n">
         <v>264.3325884096349</v>
@@ -36998,19 +36998,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P31" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,31 +37065,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37144,25 +37144,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M33" t="n">
-        <v>303.8786972770459</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K34" t="n">
         <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191276</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P34" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,31 +37302,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37381,25 +37381,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K37" t="n">
         <v>264.3325884096349</v>
@@ -37472,19 +37472,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P37" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,31 +37539,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37618,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K40" t="n">
         <v>264.3325884096349</v>
@@ -37709,19 +37709,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P40" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,31 +37776,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462705</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37855,25 +37855,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K43" t="n">
         <v>264.3325884096349</v>
@@ -37946,19 +37946,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P43" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38104,13 +38104,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>303.8786972770459</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
